--- a/fsdata/THQ.xlsx
+++ b/fsdata/THQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_A\fsdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fintech\Bit_Project1\fsdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAAE846-7700-4FFB-81D0-583FC69B45FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92CD19D-983F-48E7-A1B7-10FAAF51B217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10635" yWindow="2685" windowWidth="16710" windowHeight="11370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="580">
   <si>
     <t>[D210000] Statement of financial position, current/non-current - Consolidated financial statements (Unit: KRW)</t>
   </si>
@@ -2178,11 +2178,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -5669,16 +5671,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.625" customWidth="1"/>
-    <col min="3" max="3" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -6676,12 +6683,33 @@
         <v>349</v>
       </c>
     </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>338</v>
+      </c>
+      <c r="I26">
+        <v>-1223000000</v>
+      </c>
+      <c r="J26">
+        <v>296000000</v>
+      </c>
+      <c r="K26">
+        <v>-470000000</v>
+      </c>
+      <c r="L26">
+        <v>-319000000</v>
+      </c>
+      <c r="M26">
+        <v>-332000000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7434,9 +7462,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
